--- a/Unity/Assets/Config/Excel/BattleLevelConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/BattleLevelConfig@cs.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET7-EUI\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFBC696-DB43-4336-BE1F-7BA82FF68537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217A35DB-D138-4D21-9AE3-215382341883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-156" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleLevelConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -566,16 +554,16 @@
   <dimension ref="C2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="Q2" sqref="Q2:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -635,7 +623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -842,6 +830,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>